--- a/biology/Médecine/Trypanosoma/Trypanosoma.xlsx
+++ b/biology/Médecine/Trypanosoma/Trypanosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trypanosomes (genre Trypanosoma), du grec τρυπανον / trypanon, « tarière ; forer, creuser », et σώμα / sōma, « corps », sont des organismes parasites de la classe des kinétoplastidés, de l'ordre des Trypanosomatida, de la famille des Trypanosomatidae. Il existe une vingtaine d'espèces infectant divers chordés, parmi lesquels l'humain, en provoquant des maladies, les trypanosomiases. La plupart de ces espèces sont transmises par des invertébrés hématophages comme des insectes ou des sangsues. Par exemple, Trypanosoma gambiense est transmis à l'humain par la mouche tsé-tsé (ou glossine) et entraîne la maladie du sommeil.
 </t>
@@ -511,7 +523,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trypanosomes sont des organismes unicellulaires qui présentent un cycle de vie complexe qui inclut différentes formes morphologiques notamment chez les espèces transmises par les invertébrés. 
 Ils peuvent traverser différentes formes chez l'hôte invertébré, mais chez l'hôte vertébré ils ont une forme particulière appelée « trypomastigote ». Les trypanosomes présentent en général un corps fusiforme. Ils possèdent un flagelle qui est relié au corps par une membrane ondulante. Ils se reproduisent de manière asexuée par fission binaire longitudinale.
@@ -543,10 +557,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Trypanosoma comprend les espèces suivantes (liste incomplète) :
-† Trypanosoma antiquus, fossile[1]
+† Trypanosoma antiquus, fossile
 Trypanosoma avium à l'origine de trypanosomiase des oiseaux.
 Trypanosoma brucei est l'agent de la nagana chez les équidés. Il n'infecte que les animaux.
 Trypanosoma gambiense n'infecte que les humains et est l'agent de la maladie du sommeil.
@@ -569,7 +585,7 @@
 Trypanosoma theileri infectant les ruminants.
 Trypanosoma triglae
 Trypanosoma vespertilionis
-Trypanosoma vivax infectant les ruminants[2].</t>
+Trypanosoma vivax infectant les ruminants.</t>
         </is>
       </c>
     </row>
